--- a/data/trans_orig/P1414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Edad-trans_orig.xlsx
@@ -925,19 +925,19 @@
         <v>4609</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1612</v>
+        <v>1024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12858</v>
+        <v>11235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007553199969782521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002640866186667075</v>
+        <v>0.001677344253077618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02107008510916084</v>
+        <v>0.01840954787034697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -946,19 +946,19 @@
         <v>4609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12397</v>
+        <v>11674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003552940967720093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007991208489370215</v>
+        <v>0.0008040424989403199</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009555921796126269</v>
+        <v>0.008998086066278247</v>
       </c>
     </row>
     <row r="8">
@@ -988,19 +988,19 @@
         <v>605646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>597397</v>
+        <v>599020</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>608643</v>
+        <v>609231</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9924468000302175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9789299148908391</v>
+        <v>0.9815904521296531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973591338133336</v>
+        <v>0.9983226557469225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1234</v>
@@ -1009,19 +1009,19 @@
         <v>1292733</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1284945</v>
+        <v>1285668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1296305</v>
+        <v>1296299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9964470590322799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9904440782038735</v>
+        <v>0.9910019139337217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.999200879151063</v>
+        <v>0.9991959575010596</v>
       </c>
     </row>
     <row r="9">
@@ -1126,19 +1126,19 @@
         <v>14987</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8831</v>
+        <v>8868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24202</v>
+        <v>25492</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02112098032270947</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01244585078283372</v>
+        <v>0.01249816230496363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03410837158596184</v>
+        <v>0.03592619545588939</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1147,19 +1147,19 @@
         <v>14987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8998</v>
+        <v>8205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24780</v>
+        <v>24217</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01077081091151377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006466968695930871</v>
+        <v>0.005896472962862294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0178088059978542</v>
+        <v>0.01740434907538605</v>
       </c>
     </row>
     <row r="11">
@@ -1189,19 +1189,19 @@
         <v>694587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>685372</v>
+        <v>684082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>700743</v>
+        <v>700706</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9788790196772905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9658916284140382</v>
+        <v>0.9640738045441106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9875541492171663</v>
+        <v>0.9875018376950364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1303</v>
@@ -1210,19 +1210,19 @@
         <v>1376450</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1366657</v>
+        <v>1367220</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382439</v>
+        <v>1383232</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9892291890884862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9821911940021457</v>
+        <v>0.9825956509246133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9935330313040691</v>
+        <v>0.9941035270371377</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6244</v>
+        <v>7084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003264976637483017</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01015948767749759</v>
+        <v>0.01152639243502633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1335,19 +1335,19 @@
         <v>24701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15827</v>
+        <v>16146</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36563</v>
+        <v>37094</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04021291669047813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02576591016342879</v>
+        <v>0.02628580486262659</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05952368670371433</v>
+        <v>0.06038841299528941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1356,19 +1356,19 @@
         <v>26708</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16652</v>
+        <v>17953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39597</v>
+        <v>38876</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02173364253614472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01355090172886139</v>
+        <v>0.01460937778614031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03222177202330479</v>
+        <v>0.03163517076852935</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1385,7 @@
         <v>612610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>608373</v>
+        <v>607533</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>614617</v>
@@ -1394,7 +1394,7 @@
         <v>0.996735023362517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9898405123225025</v>
+        <v>0.9884736075649737</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1406,19 +1406,19 @@
         <v>589563</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>577701</v>
+        <v>577170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>598437</v>
+        <v>598118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9597870833095219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9404763132962858</v>
+        <v>0.9396115870047106</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9742340898365713</v>
+        <v>0.9737141951373735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1062</v>
@@ -1427,19 +1427,19 @@
         <v>1202172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1189283</v>
+        <v>1190004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1212228</v>
+        <v>1210927</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9782663574638553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9677782279766952</v>
+        <v>0.9683648292314708</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9864490982711386</v>
+        <v>0.9853906222138598</v>
       </c>
     </row>
     <row r="15">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9916</v>
+        <v>7366</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005024178427073144</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0230904837907966</v>
+        <v>0.01715276353452893</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1552,19 +1552,19 @@
         <v>28677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19383</v>
+        <v>19286</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40321</v>
+        <v>40003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06403904825671773</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04328460563602257</v>
+        <v>0.04306744900574683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09004163899250196</v>
+        <v>0.0893316556545035</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1573,19 +1573,19 @@
         <v>30834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20438</v>
+        <v>21119</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44348</v>
+        <v>43472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03514955491497423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02329889948890585</v>
+        <v>0.0240742700764729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05055443406776477</v>
+        <v>0.04955590240921177</v>
       </c>
     </row>
     <row r="17">
@@ -1602,7 +1602,7 @@
         <v>427271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>419513</v>
+        <v>422063</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>429429</v>
@@ -1611,7 +1611,7 @@
         <v>0.9949758215729269</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.976909516209204</v>
+        <v>0.9828472364654715</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1623,19 +1623,19 @@
         <v>419123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>407479</v>
+        <v>407797</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428417</v>
+        <v>428514</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9359609517432823</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9099583610074979</v>
+        <v>0.9106683443454967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9567153943639775</v>
+        <v>0.9569325509942535</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>770</v>
@@ -1644,19 +1644,19 @@
         <v>846395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>832881</v>
+        <v>833757</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>856791</v>
+        <v>856110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9648504450850257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9494455659322355</v>
+        <v>0.9504440975907884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9767011005110942</v>
+        <v>0.9759257299235272</v>
       </c>
     </row>
     <row r="18">
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7735</v>
+        <v>7605</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007001806644928184</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02496851785023873</v>
+        <v>0.02454953834775627</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1769,19 +1769,19 @@
         <v>10876</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5869</v>
+        <v>5984</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18190</v>
+        <v>19259</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03080689409573263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01662484786913449</v>
+        <v>0.01695021137526156</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05152616975030086</v>
+        <v>0.05455253410157868</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1790,19 +1790,19 @@
         <v>13045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7116</v>
+        <v>7113</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22468</v>
+        <v>21261</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01968089261605812</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01073529295244791</v>
+        <v>0.01073167217018797</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03389821140393235</v>
+        <v>0.03207731060946537</v>
       </c>
     </row>
     <row r="20">
@@ -1819,7 +1819,7 @@
         <v>307617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>302051</v>
+        <v>302181</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>309786</v>
@@ -1828,7 +1828,7 @@
         <v>0.9929981933550718</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9750314821497613</v>
+        <v>0.9754504616522435</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1840,19 +1840,19 @@
         <v>342153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334839</v>
+        <v>333770</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347160</v>
+        <v>347045</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9691931059042673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9484738302496998</v>
+        <v>0.9454474658984209</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9833751521308656</v>
+        <v>0.9830497886247384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>612</v>
@@ -1861,19 +1861,19 @@
         <v>649771</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>640348</v>
+        <v>641555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>655700</v>
+        <v>655703</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9803191073839419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9661017885960675</v>
+        <v>0.9679226893905346</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9892647070475521</v>
+        <v>0.989268327829812</v>
       </c>
     </row>
     <row r="21">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5396</v>
+        <v>4279</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004204931873259043</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02159868967594543</v>
+        <v>0.01712551913290191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -1986,19 +1986,19 @@
         <v>8941</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3391</v>
+        <v>4391</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15902</v>
+        <v>16998</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02298484393065589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008717021091783893</v>
+        <v>0.01128912297389213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04088119424269027</v>
+        <v>0.04369958287193885</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2007,19 +2007,19 @@
         <v>9991</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4415</v>
+        <v>4450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17791</v>
+        <v>17634</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01563988807551909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006910807816157817</v>
+        <v>0.006965353549834622</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02784964880024651</v>
+        <v>0.02760310419781957</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>248800</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>244455</v>
+        <v>245572</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>249851</v>
@@ -2045,7 +2045,7 @@
         <v>0.995795068126741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9784013103240546</v>
+        <v>0.9828744808670981</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2057,19 +2057,19 @@
         <v>380038</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>373077</v>
+        <v>371981</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>385588</v>
+        <v>384588</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9770151560693441</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9591188057573097</v>
+        <v>0.9563004171280612</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9912829789082162</v>
+        <v>0.9887108770261079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>563</v>
@@ -2078,19 +2078,19 @@
         <v>628839</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>621039</v>
+        <v>621196</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>634415</v>
+        <v>634380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9843601119244809</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9721503511997535</v>
+        <v>0.9723968958021801</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9930891921838422</v>
+        <v>0.9930346464501654</v>
       </c>
     </row>
     <row r="24">
@@ -2182,19 +2182,19 @@
         <v>7384</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14849</v>
+        <v>15378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002154765960687546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0009179831695049705</v>
+        <v>0.0009172648221282471</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.00433333070919853</v>
+        <v>0.004487461141664699</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -2203,19 +2203,19 @@
         <v>92791</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74157</v>
+        <v>73392</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>112555</v>
+        <v>114129</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02610782992261705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02086508708477759</v>
+        <v>0.02064985319876697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03166870819318109</v>
+        <v>0.03211161865515254</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2224,19 +2224,19 @@
         <v>100175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80711</v>
+        <v>80016</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122539</v>
+        <v>121617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01434978620531129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01156168232511557</v>
+        <v>0.01146217686593146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01755341501983893</v>
+        <v>0.01742135899156947</v>
       </c>
     </row>
     <row r="26">
@@ -2253,19 +2253,19 @@
         <v>3419395</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3411930</v>
+        <v>3411401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3423633</v>
+        <v>3423636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9978452340393125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9956666692908015</v>
+        <v>0.9955125388583318</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.999082016830495</v>
+        <v>0.9990827351778718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3209</v>
@@ -2274,19 +2274,19 @@
         <v>3461341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3441577</v>
+        <v>3440003</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3479975</v>
+        <v>3480740</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9738921700773829</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9683312918068189</v>
+        <v>0.9678883813448472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9791349129152223</v>
+        <v>0.979350146801233</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6411</v>
@@ -2295,19 +2295,19 @@
         <v>6880736</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6858372</v>
+        <v>6859294</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6900200</v>
+        <v>6900895</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9856502137946888</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9824465849801606</v>
+        <v>0.9825786410084305</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9884383176748843</v>
+        <v>0.9885378231340685</v>
       </c>
     </row>
     <row r="27">
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5763</v>
+        <v>4801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0024080895673127</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01456221206749873</v>
+        <v>0.01213073391875306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4799</v>
+        <v>3839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00116902901079597</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005886347196784571</v>
+        <v>0.004709594906734254</v>
       </c>
     </row>
     <row r="5">
@@ -2718,7 +2718,7 @@
         <v>394802</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>389992</v>
+        <v>390954</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2727,7 +2727,7 @@
         <v>0.9975919104326872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9854377879325013</v>
+        <v>0.9878692660812469</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2739,7 +2739,7 @@
         <v>814265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810419</v>
+        <v>811379</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2748,7 +2748,7 @@
         <v>0.998830970989204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9941136528032154</v>
+        <v>0.9952904050932657</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2843,19 +2843,19 @@
         <v>3005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8056</v>
+        <v>8848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005089688604586981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001613914735388814</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01364290291531453</v>
+        <v>0.01498385037440645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2864,19 +2864,19 @@
         <v>2934</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7958</v>
+        <v>7797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005205958027859774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>0.001635255972732684</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01412088021052678</v>
+        <v>0.01383584805040009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2885,19 +2885,19 @@
         <v>5939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2021</v>
+        <v>2047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12911</v>
+        <v>12801</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005146465581273373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001751542663235668</v>
+        <v>0.001773777227809863</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01118808104302767</v>
+        <v>0.01109245592334494</v>
       </c>
     </row>
     <row r="8">
@@ -2914,19 +2914,19 @@
         <v>587491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582440</v>
+        <v>581648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589543</v>
+        <v>590496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.994910311395413</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9863570970846854</v>
+        <v>0.9850161496255939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9983860852646113</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -2935,19 +2935,19 @@
         <v>560610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555586</v>
+        <v>555747</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>563544</v>
+        <v>562622</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9947940419721403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9858791197894732</v>
+        <v>0.9861641519495998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>1</v>
+        <v>0.9983647440272674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1140</v>
@@ -2956,19 +2956,19 @@
         <v>1148101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1141129</v>
+        <v>1141239</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152019</v>
+        <v>1151993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9948535344187266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9888119189569724</v>
+        <v>0.9889075440766556</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9982484573367643</v>
+        <v>0.9982262227721902</v>
       </c>
     </row>
     <row r="9">
@@ -3073,19 +3073,19 @@
         <v>7961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3532</v>
+        <v>3661</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15248</v>
+        <v>15210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01203711444459429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005340281365438257</v>
+        <v>0.005535258548610813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02305516812415467</v>
+        <v>0.02299704297898433</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3094,19 +3094,19 @@
         <v>7961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3798</v>
+        <v>3698</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16513</v>
+        <v>15418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005983678496877289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002854923187143337</v>
+        <v>0.00277964155922429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0124110054610054</v>
+        <v>0.01158863358614985</v>
       </c>
     </row>
     <row r="11">
@@ -3136,19 +3136,19 @@
         <v>653425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>646138</v>
+        <v>646176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657854</v>
+        <v>657725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9879628855554057</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9769448318758452</v>
+        <v>0.9770029570210156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9946597186345617</v>
+        <v>0.9944647414513892</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1295</v>
@@ -3157,19 +3157,19 @@
         <v>1322522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1313970</v>
+        <v>1315065</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1326685</v>
+        <v>1326785</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9940163215031227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9875889945389942</v>
+        <v>0.98841136641385</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971450768128567</v>
+        <v>0.9972203584407757</v>
       </c>
     </row>
     <row r="12">
@@ -3261,19 +3261,19 @@
         <v>4112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1090</v>
+        <v>985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10830</v>
+        <v>8948</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006365621842430358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001687692621540878</v>
+        <v>0.00152510515748669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01676370851057618</v>
+        <v>0.01385034602318849</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -3282,19 +3282,19 @@
         <v>37133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26095</v>
+        <v>26671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51114</v>
+        <v>52626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05720917778362933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04020335872449237</v>
+        <v>0.04109134955061702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07874934889267206</v>
+        <v>0.08107882750694896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -3303,19 +3303,19 @@
         <v>41246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29840</v>
+        <v>30078</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57727</v>
+        <v>55429</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03184684845380698</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02304020402602448</v>
+        <v>0.02322395602343882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04457232532481089</v>
+        <v>0.04279832858373195</v>
       </c>
     </row>
     <row r="14">
@@ -3332,19 +3332,19 @@
         <v>641936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>635218</v>
+        <v>637100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>644958</v>
+        <v>645063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9936343781575696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.983236291489424</v>
+        <v>0.9861496539768114</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983123073784591</v>
+        <v>0.9984748948425132</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>568</v>
@@ -3353,19 +3353,19 @@
         <v>611944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597963</v>
+        <v>596451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>622982</v>
+        <v>622406</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9427908222163707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.921250651107328</v>
+        <v>0.9189211724930506</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9597966412755076</v>
+        <v>0.9589086504493829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1146</v>
@@ -3374,19 +3374,19 @@
         <v>1253879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1237398</v>
+        <v>1239696</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1265285</v>
+        <v>1265047</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.968153151546193</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9554276746751891</v>
+        <v>0.9572016714162681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9769597959739755</v>
+        <v>0.9767760439765611</v>
       </c>
     </row>
     <row r="15">
@@ -3478,19 +3478,19 @@
         <v>4279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1062</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10600</v>
+        <v>10229</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008952756630001526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002222283377184234</v>
+        <v>0.002511875136280163</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02217957255087214</v>
+        <v>0.02140339166662638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -3499,19 +3499,19 @@
         <v>43732</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31924</v>
+        <v>32747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58280</v>
+        <v>59379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08801931951027442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06425214758908053</v>
+        <v>0.06590886947474482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1172984701809262</v>
+        <v>0.1195101839893169</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -3520,19 +3520,19 @@
         <v>48011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35201</v>
+        <v>35071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61938</v>
+        <v>64257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04925381607892856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03611242227904633</v>
+        <v>0.03597890306227565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06354170951025601</v>
+        <v>0.06592005951692061</v>
       </c>
     </row>
     <row r="17">
@@ -3549,19 +3549,19 @@
         <v>473639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>467318</v>
+        <v>467689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476856</v>
+        <v>476718</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9910472433699985</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.977820427449128</v>
+        <v>0.9785966083333743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977777166228158</v>
+        <v>0.9974881248637198</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -3570,19 +3570,19 @@
         <v>453117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>438569</v>
+        <v>437470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>464925</v>
+        <v>464102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9119806804897256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8827015298190737</v>
+        <v>0.880489816010683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9357478524109193</v>
+        <v>0.9340911305252551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>813</v>
@@ -3591,19 +3591,19 @@
         <v>926756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>912829</v>
+        <v>910510</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>939566</v>
+        <v>939696</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9507461839210715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.936458290489744</v>
+        <v>0.9340799404830793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9638875777209537</v>
+        <v>0.9640210969377242</v>
       </c>
     </row>
     <row r="18">
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8978</v>
+        <v>10381</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007929849335319882</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0268525888039355</v>
+        <v>0.03105025555717167</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -3716,19 +3716,19 @@
         <v>20930</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13486</v>
+        <v>13522</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31576</v>
+        <v>31529</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05540397330720894</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03569894699842719</v>
+        <v>0.03579555461007522</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08358806661048736</v>
+        <v>0.08346147574306136</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -3737,19 +3737,19 @@
         <v>23581</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15153</v>
+        <v>14716</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34663</v>
+        <v>34314</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0331146851457228</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02128005396154355</v>
+        <v>0.02066571182150906</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04867741412076233</v>
+        <v>0.04818710648759299</v>
       </c>
     </row>
     <row r="20">
@@ -3766,7 +3766,7 @@
         <v>331679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>325352</v>
+        <v>323949</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>334330</v>
@@ -3775,7 +3775,7 @@
         <v>0.9920701506646801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9731474111960645</v>
+        <v>0.9689497444428281</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3787,19 +3787,19 @@
         <v>356832</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>346186</v>
+        <v>346233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>364276</v>
+        <v>364240</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9445960266927911</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9164119333895125</v>
+        <v>0.9165385242569389</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9643010530015728</v>
+        <v>0.9642044453899249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>657</v>
@@ -3808,19 +3808,19 @@
         <v>688511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>677429</v>
+        <v>677778</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>696939</v>
+        <v>697376</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9668853148542772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9513225858792379</v>
+        <v>0.9518128935124071</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9787199460384565</v>
+        <v>0.979334288178491</v>
       </c>
     </row>
     <row r="21">
@@ -3925,19 +3925,19 @@
         <v>11425</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5116</v>
+        <v>5186</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20476</v>
+        <v>20414</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02855086869811243</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0127853752172398</v>
+        <v>0.01296048173780842</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05116897024686341</v>
+        <v>0.05101463019247624</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -3946,19 +3946,19 @@
         <v>11425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5298</v>
+        <v>5150</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20696</v>
+        <v>20575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01738549341519307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008061973032166918</v>
+        <v>0.007837017846518333</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03149264425573869</v>
+        <v>0.03130897263056828</v>
       </c>
     </row>
     <row r="23">
@@ -3988,19 +3988,19 @@
         <v>388744</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>379693</v>
+        <v>379755</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395053</v>
+        <v>394983</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9714491313018876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9488310297531366</v>
+        <v>0.948985369807523</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9872146247827602</v>
+        <v>0.9870395182621914</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>594</v>
@@ -4009,19 +4009,19 @@
         <v>645742</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>636471</v>
+        <v>636592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>651869</v>
+        <v>652017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.982614506584807</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9685073557442613</v>
+        <v>0.9686910273694318</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9919380269678331</v>
+        <v>0.9921629821534816</v>
       </c>
     </row>
     <row r="24">
@@ -4113,19 +4113,19 @@
         <v>14048</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8055</v>
+        <v>8155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24409</v>
+        <v>24824</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004138586461645745</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00237301787293677</v>
+        <v>0.002402462093083077</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007190930876288585</v>
+        <v>0.00731319194410314</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -4134,19 +4134,19 @@
         <v>125068</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104032</v>
+        <v>104376</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147255</v>
+        <v>150003</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03528471124228898</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02934984007914337</v>
+        <v>0.02944684492822989</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04154414927234137</v>
+        <v>0.04231941153435369</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -4155,19 +4155,19 @@
         <v>139116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115955</v>
+        <v>118088</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>164383</v>
+        <v>165114</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02004872628620505</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01671081536291657</v>
+        <v>0.01701826085527816</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0236901268061255</v>
+        <v>0.02379546228855667</v>
       </c>
     </row>
     <row r="26">
@@ -4184,19 +4184,19 @@
         <v>3380302</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3369941</v>
+        <v>3369526</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3386295</v>
+        <v>3386195</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9958614135383542</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9928090691237115</v>
+        <v>0.9926868080558969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976269821270634</v>
+        <v>0.997597537906917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3223</v>
@@ -4205,19 +4205,19 @@
         <v>3419474</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3397287</v>
+        <v>3394539</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3440510</v>
+        <v>3440166</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9647152887577111</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9584558507276586</v>
+        <v>0.9576805884656463</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9706501599208567</v>
+        <v>0.9705531550717701</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6441</v>
@@ -4226,19 +4226,19 @@
         <v>6799776</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6774509</v>
+        <v>6773778</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6822937</v>
+        <v>6820804</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.979951273713795</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9763098731938742</v>
+        <v>0.9762045377114433</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9832891846370834</v>
+        <v>0.9829817391447219</v>
       </c>
     </row>
     <row r="27">
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00560582771253704</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13362</v>
+        <v>10450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002638149273512037</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01734608376044152</v>
+        <v>0.01356651260299147</v>
       </c>
     </row>
     <row r="5">
@@ -4649,7 +4649,7 @@
         <v>360480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350114</v>
+        <v>350227</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -4658,7 +4658,7 @@
         <v>0.994394172287463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9657994583487106</v>
+        <v>0.9661109943332037</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4670,16 +4670,16 @@
         <v>768273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>756943</v>
+        <v>759855</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.997361850726488</v>
+        <v>0.9973618507264879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9826539162395573</v>
+        <v>0.9864334873970084</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002861599088971093</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6370</v>
+        <v>6287</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003586727500049843</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01272896288528234</v>
+        <v>0.01256249026125231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -4816,19 +4816,19 @@
         <v>3160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9284</v>
+        <v>9117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00323289250881721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0008943169026648796</v>
+        <v>0.0009043979444597007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009499139570455648</v>
+        <v>0.009328448007219851</v>
       </c>
     </row>
     <row r="8">
@@ -4845,7 +4845,7 @@
         <v>475525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470686</v>
+        <v>469178</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -4854,7 +4854,7 @@
         <v>0.9971384009110289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869903821559227</v>
+        <v>0.983828658484584</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>498625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>494050</v>
+        <v>494133</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>500420</v>
@@ -4875,7 +4875,7 @@
         <v>0.9964132724999502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9872710371147174</v>
+        <v>0.9874375097387476</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4887,19 +4887,19 @@
         <v>974150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>968026</v>
+        <v>968193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>976436</v>
+        <v>976426</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9967671074911827</v>
+        <v>0.9967671074911828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9905008604295445</v>
+        <v>0.9906715519927801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9991056830973352</v>
+        <v>0.9990956020555403</v>
       </c>
     </row>
     <row r="9">
@@ -5004,19 +5004,19 @@
         <v>11760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7095</v>
+        <v>7103</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18736</v>
+        <v>18363</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01896859639295116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0114431772297296</v>
+        <v>0.01145719167699312</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03022088977546036</v>
+        <v>0.02961887381932447</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5025,19 +5025,19 @@
         <v>11760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6724</v>
+        <v>7044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18707</v>
+        <v>18738</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009488475527208481</v>
+        <v>0.009488475527208483</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005425045655964785</v>
+        <v>0.005683038837302663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01509299545261592</v>
+        <v>0.01511863488062595</v>
       </c>
     </row>
     <row r="11">
@@ -5067,19 +5067,19 @@
         <v>608224</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>601248</v>
+        <v>601621</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>612889</v>
+        <v>612881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9810314036070491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9697791102245393</v>
+        <v>0.9703811261806755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9885568227702705</v>
+        <v>0.9885428083230069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1371</v>
@@ -5088,19 +5088,19 @@
         <v>1227663</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1220716</v>
+        <v>1220685</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1232699</v>
+        <v>1232379</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9905115244727914</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9849070045473839</v>
+        <v>0.9848813651193741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9945749543440351</v>
+        <v>0.9943169611626972</v>
       </c>
     </row>
     <row r="12">
@@ -5192,19 +5192,19 @@
         <v>5439</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13818</v>
+        <v>15035</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007775140501611465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001647310099377374</v>
+        <v>0.001667082368479909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01975392154083501</v>
+        <v>0.02149260811106129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -5213,19 +5213,19 @@
         <v>29143</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22375</v>
+        <v>22198</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38244</v>
+        <v>38579</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03983436997973447</v>
+        <v>0.03983436997973448</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0305837976044672</v>
+        <v>0.03034258378630139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05227441995497816</v>
+        <v>0.05273261845510206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -5234,19 +5234,19 @@
         <v>34581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25643</v>
+        <v>25510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45369</v>
+        <v>45723</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02416397751488617</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01791855396036051</v>
+        <v>0.01782522767281581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0317019181720238</v>
+        <v>0.03194891709036279</v>
       </c>
     </row>
     <row r="14">
@@ -5263,19 +5263,19 @@
         <v>694083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685704</v>
+        <v>684487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>698370</v>
+        <v>698356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9922248594983885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9802460784591649</v>
+        <v>0.9785073918889386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983526899006226</v>
+        <v>0.99833291763152</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1085</v>
@@ -5284,19 +5284,19 @@
         <v>702450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>693349</v>
+        <v>693014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>709218</v>
+        <v>709395</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9601656300202654</v>
+        <v>0.9601656300202656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9477255800450213</v>
+        <v>0.9472673815448981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9694162023955325</v>
+        <v>0.9696574162136986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1745</v>
@@ -5305,19 +5305,19 @@
         <v>1396533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1385745</v>
+        <v>1385391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1405471</v>
+        <v>1405604</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.975836022485114</v>
+        <v>0.9758360224851137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9682980818279763</v>
+        <v>0.9680510829096373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9820814460396395</v>
+        <v>0.9821747723271842</v>
       </c>
     </row>
     <row r="15">
@@ -5409,19 +5409,19 @@
         <v>4368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9069</v>
+        <v>10182</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.007186995358724502</v>
+        <v>0.007186995358724504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002664160563605624</v>
+        <v>0.002660624188643987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0149220442825592</v>
+        <v>0.01675225761952939</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -5430,19 +5430,19 @@
         <v>50625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41287</v>
+        <v>40043</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62304</v>
+        <v>61992</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08399250316461003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06849932977365171</v>
+        <v>0.06643522792333061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1033682889920498</v>
+        <v>0.1028503717332325</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -5451,19 +5451,19 @@
         <v>54993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43944</v>
+        <v>43949</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66596</v>
+        <v>66694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04542980985342202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0363018475826682</v>
+        <v>0.03630570684322802</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05501432744453124</v>
+        <v>0.05509565247147521</v>
       </c>
     </row>
     <row r="17">
@@ -5480,19 +5480,19 @@
         <v>603410</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>598709</v>
+        <v>597596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606159</v>
+        <v>606161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9928130046412754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9850779557174409</v>
+        <v>0.9832477423804705</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973358394363944</v>
+        <v>0.9973393758113561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>911</v>
@@ -5501,19 +5501,19 @@
         <v>552112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>540433</v>
+        <v>540745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>561450</v>
+        <v>562694</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9160074968353901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.89663171100795</v>
+        <v>0.8971496282667675</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9315006702263483</v>
+        <v>0.9335647720766691</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1567</v>
@@ -5522,19 +5522,19 @@
         <v>1155522</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1143919</v>
+        <v>1143821</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1166571</v>
+        <v>1166566</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9545701901465782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9449856725554686</v>
+        <v>0.9449043475285249</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9636981524173316</v>
+        <v>0.9636942931567718</v>
       </c>
     </row>
     <row r="18">
@@ -5626,19 +5626,19 @@
         <v>3075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1071</v>
+        <v>1123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7170</v>
+        <v>7233</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007595384760310546</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002646715561698077</v>
+        <v>0.002774721698708306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01771306100997682</v>
+        <v>0.01786714378740992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -5647,19 +5647,19 @@
         <v>39257</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31116</v>
+        <v>30983</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48231</v>
+        <v>48783</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09003590648550491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07136535768524976</v>
+        <v>0.07105982451292284</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1106181099487372</v>
+        <v>0.1118846662169674</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -5668,19 +5668,19 @@
         <v>42331</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32688</v>
+        <v>33670</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51247</v>
+        <v>52975</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05034498495241321</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03887633626852931</v>
+        <v>0.04004376205495575</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06094854082391768</v>
+        <v>0.06300392852193945</v>
       </c>
     </row>
     <row r="20">
@@ -5697,19 +5697,19 @@
         <v>401739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>397644</v>
+        <v>397581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>403743</v>
+        <v>403691</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9924046152396895</v>
+        <v>0.9924046152396894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9822869389900232</v>
+        <v>0.9821328562125893</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9973532844383017</v>
+        <v>0.9972252783012916</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>752</v>
@@ -5718,19 +5718,19 @@
         <v>396753</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>387779</v>
+        <v>387227</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>404894</v>
+        <v>405027</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9099640935144951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8893818900512629</v>
+        <v>0.8881153337830326</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9286346423147506</v>
+        <v>0.9289401754870774</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1314</v>
@@ -5739,19 +5739,19 @@
         <v>798493</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>789577</v>
+        <v>787849</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>808136</v>
+        <v>807154</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.949655015047587</v>
+        <v>0.9496550150475868</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9390514591760823</v>
+        <v>0.9369960714780603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9611236637314708</v>
+        <v>0.9599562379450443</v>
       </c>
     </row>
     <row r="21">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2617</v>
+        <v>2349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001685523417778788</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.00846876425593421</v>
+        <v>0.007601497269727908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -5864,19 +5864,19 @@
         <v>20330</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15030</v>
+        <v>14278</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27938</v>
+        <v>28188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04390868124242531</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03246250325254774</v>
+        <v>0.03083875456712457</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0603412636432842</v>
+        <v>0.06088052890580545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -5885,19 +5885,19 @@
         <v>20851</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14929</v>
+        <v>15144</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28684</v>
+        <v>28587</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02700831786452604</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01933814268911345</v>
+        <v>0.01961685904586165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03715550162144694</v>
+        <v>0.03702964250181828</v>
       </c>
     </row>
     <row r="23">
@@ -5914,16 +5914,16 @@
         <v>308487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>306391</v>
+        <v>306659</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>309008</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9983144765822212</v>
+        <v>0.9983144765822214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9915312357440657</v>
+        <v>0.9923985027302715</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -5935,19 +5935,19 @@
         <v>442674</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>435066</v>
+        <v>434816</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>447974</v>
+        <v>448726</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9560913187575746</v>
+        <v>0.9560913187575745</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9396587363567159</v>
+        <v>0.9391194710941947</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9675374967474523</v>
+        <v>0.9691612454328754</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1298</v>
@@ -5956,19 +5956,19 @@
         <v>751161</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>743328</v>
+        <v>743425</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>757083</v>
+        <v>756868</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9729916821354739</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.962844498378553</v>
+        <v>0.9629703574981818</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9806618573108868</v>
+        <v>0.9803831409541384</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>14767</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8636</v>
+        <v>7898</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25411</v>
+        <v>24634</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.004188988346218044</v>
+        <v>0.004188988346218045</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0024497651310508</v>
+        <v>0.002240306028318301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007208260936682797</v>
+        <v>0.006987857390882377</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>256</v>
@@ -6081,19 +6081,19 @@
         <v>154942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>137156</v>
+        <v>137597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175055</v>
+        <v>175771</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04169289001399736</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03690687715610168</v>
+        <v>0.03702557464572784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04710526989040408</v>
+        <v>0.04729783000905444</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>272</v>
@@ -6102,19 +6102,19 @@
         <v>169709</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>149596</v>
+        <v>150343</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>193247</v>
+        <v>190690</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02343557949299121</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02065809261121276</v>
+        <v>0.02076133452034648</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02668600576319236</v>
+        <v>0.02633293895339732</v>
       </c>
     </row>
     <row r="26">
@@ -6131,19 +6131,19 @@
         <v>3510476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3499832</v>
+        <v>3500609</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3516607</v>
+        <v>3517345</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9958110116537818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9927917390633172</v>
+        <v>0.9930121426091176</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9975502348689492</v>
+        <v>0.9977596939716816</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5079</v>
@@ -6152,19 +6152,19 @@
         <v>3561318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3541205</v>
+        <v>3540489</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3579104</v>
+        <v>3578663</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9583071099860027</v>
+        <v>0.9583071099860028</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9528947301095958</v>
+        <v>0.9527021699909458</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9630931228438984</v>
+        <v>0.9629744253542721</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8431</v>
@@ -6173,19 +6173,19 @@
         <v>7071794</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7048256</v>
+        <v>7050813</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7091907</v>
+        <v>7091160</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9765644205070088</v>
+        <v>0.9765644205070089</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9733139942368076</v>
+        <v>0.9736670610466025</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.979341907388787</v>
+        <v>0.9792386654796537</v>
       </c>
     </row>
     <row r="27">
